--- a/results/TA.xlsx
+++ b/results/TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Desktop\projects\JupyterNotebook\CG\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C6DD1B-E6B1-496E-98FC-3A816EDAF8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B798F96-9247-4465-8203-06634469B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A6095DD-D1B0-4014-B328-DDCF9500ACEE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>RUN</t>
   </si>
@@ -51,21 +51,6 @@
     <t>Inicial</t>
   </si>
   <si>
-    <t>99.364</t>
-  </si>
-  <si>
-    <t>0.995249406175772</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>99.266</t>
-  </si>
-  <si>
-    <t>0.9938242280285036</t>
-  </si>
-  <si>
     <t>Nº TODOS CERTOS</t>
   </si>
   <si>
@@ -90,93 +75,24 @@
     <t>LOGITS OK / count</t>
   </si>
   <si>
-    <t>99.336</t>
-  </si>
-  <si>
-    <t>0.9948535233570863</t>
-  </si>
-  <si>
-    <t>99.398</t>
-  </si>
-  <si>
-    <t>0.9950118764845606</t>
-  </si>
-  <si>
-    <t>99.419</t>
-  </si>
-  <si>
     <t>1h 33min 34s</t>
   </si>
   <si>
-    <t>0.9946159936658749</t>
-  </si>
-  <si>
-    <t>99.303</t>
-  </si>
-  <si>
-    <t>0.9941409342834521</t>
-  </si>
-  <si>
     <t>Gaussian (25)</t>
   </si>
   <si>
-    <t>0.9943784639746635</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>V6</t>
-  </si>
-  <si>
-    <t>V7</t>
-  </si>
-  <si>
     <t>VERSION</t>
   </si>
   <si>
-    <t>Concatenate brightness</t>
-  </si>
-  <si>
-    <t>V8</t>
-  </si>
-  <si>
     <t>Gaussian (50)</t>
   </si>
   <si>
-    <t>99.134</t>
-  </si>
-  <si>
-    <t>0.9927949326999208</t>
-  </si>
-  <si>
-    <t>V9</t>
-  </si>
-  <si>
     <t>Gaussian (75)</t>
   </si>
   <si>
-    <t>99.084</t>
-  </si>
-  <si>
-    <t>99.111</t>
-  </si>
-  <si>
-    <t>V10</t>
-  </si>
-  <si>
     <t>Gaussian(50) + Perlin (1024)</t>
   </si>
   <si>
-    <t>0.9930324623911322</t>
-  </si>
-  <si>
     <t>TIME</t>
   </si>
   <si>
@@ -198,12 +114,6 @@
     <t>Gaussian(25) + Perlin (1024)</t>
   </si>
   <si>
-    <t>99.232</t>
-  </si>
-  <si>
-    <t>0.9935866983372922</t>
-  </si>
-  <si>
     <t>1h 19min 25s</t>
   </si>
   <si>
@@ -216,22 +126,28 @@
     <t>Perlin noise freq = 2048</t>
   </si>
   <si>
-    <t>V11</t>
-  </si>
-  <si>
-    <t>V12</t>
-  </si>
-  <si>
     <t>Gaussian(25) + Perlin (512)</t>
   </si>
   <si>
-    <t>99.235</t>
-  </si>
-  <si>
-    <t>0.9939825811559778</t>
-  </si>
-  <si>
     <t>1h 47min 22s</t>
+  </si>
+  <si>
+    <t>Concatenate original</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Total Corrente</t>
+  </si>
+  <si>
+    <t>Contar</t>
+  </si>
+  <si>
+    <t>20h 15min</t>
   </si>
 </sst>
 </file>
@@ -318,6 +234,2035 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>99.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.364000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.266000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.397999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.302999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.302999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.084000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.111000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.234999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0E4-419F-9413-89C8F016B29B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="785234703"/>
+        <c:axId val="785230959"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="785234703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Versão</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785230959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="785230959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785234703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy logits</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.99485352335708599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99524940617577196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99382422802850301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99501187648456002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99461599366587405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99414093428345196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99437846397466301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99279493269992003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99279493269992003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99303246239113196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99358669833729196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99398258115597704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E63C-40DC-90B2-7E39BC6ECBB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="785234703"/>
+        <c:axId val="785230959"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="785234703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Versão</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785230959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="785230959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785234703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9EDA2F-E93E-48B2-809A-C07884CB5FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FD4512-D13D-4B5A-942C-E12C5BD79376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,16 +2562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B0A6DC-F94F-4346-A356-3696A26A934D}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
@@ -642,7 +2588,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -657,80 +2603,125 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>99.335999999999999</v>
+      </c>
+      <c r="F2">
+        <v>12448</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>110</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>54</v>
+      </c>
+      <c r="K2">
+        <v>12565</v>
+      </c>
+      <c r="L2">
+        <v>65</v>
+      </c>
+      <c r="M2">
+        <v>0.99485352335708599</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>12448</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>110</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>54</v>
-      </c>
-      <c r="K3">
-        <v>12565</v>
-      </c>
-      <c r="L3">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>99.364000000000004</v>
+      </c>
+      <c r="F3" s="5">
+        <v>12494</v>
+      </c>
+      <c r="G3" s="5">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5">
+        <v>69</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>37</v>
+      </c>
+      <c r="K3" s="5">
+        <v>12570</v>
+      </c>
+      <c r="L3" s="5">
+        <v>60</v>
+      </c>
+      <c r="M3">
+        <v>0.99524940617577196</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>29</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -738,40 +2729,40 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>12494</v>
-      </c>
-      <c r="G4" s="5">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5">
-        <v>69</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>37</v>
-      </c>
-      <c r="K4" s="5">
-        <v>12570</v>
-      </c>
-      <c r="L4" s="5">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6</v>
+      <c r="E4">
+        <v>99.266000000000005</v>
+      </c>
+      <c r="F4">
+        <v>12484</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>12552</v>
+      </c>
+      <c r="L4">
+        <v>78</v>
+      </c>
+      <c r="M4">
+        <v>0.99382422802850301</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -779,40 +2770,40 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
+      <c r="E5">
+        <v>99.397999999999996</v>
       </c>
       <c r="F5">
-        <v>12484</v>
+        <v>12507</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>12567</v>
+      </c>
+      <c r="L5">
         <v>63</v>
       </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>12552</v>
-      </c>
-      <c r="L5">
-        <v>78</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
+      <c r="M5">
+        <v>0.99501187648456002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -820,40 +2811,43 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
+      <c r="E6">
+        <v>99.418999999999997</v>
       </c>
       <c r="F6">
-        <v>12507</v>
+        <v>12515</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>12567</v>
+        <v>12562</v>
       </c>
       <c r="L6">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>0.99461599366587405</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -861,43 +2855,43 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
+      <c r="E7" s="5">
+        <v>99.302999999999997</v>
       </c>
       <c r="F7">
-        <v>12515</v>
+        <v>12489</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>12562</v>
+        <v>12556</v>
       </c>
       <c r="L7">
-        <v>68</v>
-      </c>
-      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7">
+        <v>0.99414093428345196</v>
+      </c>
+      <c r="N7" t="s">
         <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -905,43 +2899,43 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
+      <c r="E8">
+        <v>99.302999999999997</v>
       </c>
       <c r="F8">
-        <v>12489</v>
+        <v>12494</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>12556</v>
+        <v>12559</v>
       </c>
       <c r="L8">
-        <v>74</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="M8">
+        <v>0.99437846397466301</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -949,43 +2943,43 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
+      <c r="E9">
+        <v>99.134</v>
       </c>
       <c r="F9">
-        <v>12494</v>
+        <v>12460</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>12559</v>
+        <v>12539</v>
       </c>
       <c r="L9">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="M9">
+        <v>0.99279493269992003</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>36</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -993,23 +2987,23 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>99.084000000000003</v>
+      </c>
+      <c r="F10">
+        <v>12453</v>
+      </c>
+      <c r="G10">
         <v>38</v>
       </c>
-      <c r="F10">
-        <v>12460</v>
-      </c>
-      <c r="G10">
-        <v>47</v>
-      </c>
       <c r="H10">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>12539</v>
@@ -1017,19 +3011,19 @@
       <c r="L10">
         <v>91</v>
       </c>
-      <c r="M10" t="s">
-        <v>39</v>
+      <c r="M10">
+        <v>0.99279493269992003</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>40</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1037,43 +3031,43 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>42</v>
+      <c r="E11">
+        <v>99.111000000000004</v>
       </c>
       <c r="F11">
-        <v>12453</v>
+        <v>12460</v>
       </c>
       <c r="G11">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>12539</v>
+        <v>12542</v>
       </c>
       <c r="L11">
-        <v>91</v>
-      </c>
-      <c r="M11" t="s">
-        <v>39</v>
+        <v>88</v>
+      </c>
+      <c r="M11">
+        <v>0.99303246239113196</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>44</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -1081,43 +3075,43 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
-        <v>43</v>
+      <c r="E12" s="5">
+        <v>99.231999999999999</v>
       </c>
       <c r="F12">
-        <v>12460</v>
+        <v>12477</v>
       </c>
       <c r="G12">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>12542</v>
+        <v>12549</v>
       </c>
       <c r="L12">
-        <v>88</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="M12">
+        <v>0.99358669833729196</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>60</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -1125,109 +3119,77 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
+      <c r="E13" s="5">
+        <v>99.234999999999999</v>
       </c>
       <c r="F13">
         <v>12477</v>
       </c>
       <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>12554</v>
+      </c>
+      <c r="L13">
+        <v>76</v>
+      </c>
+      <c r="M13">
+        <v>0.99398258115597704</v>
+      </c>
+      <c r="N13" t="s">
         <v>31</v>
-      </c>
-      <c r="H13">
-        <v>67</v>
-      </c>
-      <c r="I13">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>37</v>
-      </c>
-      <c r="K13">
-        <v>12549</v>
-      </c>
-      <c r="L13">
-        <v>81</v>
-      </c>
-      <c r="M13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14">
-        <v>12477</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>64</v>
-      </c>
-      <c r="I14">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>55</v>
-      </c>
-      <c r="K14">
-        <v>12554</v>
-      </c>
-      <c r="L14">
-        <v>76</v>
-      </c>
-      <c r="M14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" t="s">
-        <v>65</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="4:12">
+    <row r="17" spans="1:12">
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="4:12">
-      <c r="E18" s="3"/>
+    <row r="18" spans="1:12">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="4:12">
-      <c r="F19" s="3"/>
+    <row r="19" spans="1:12">
+      <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="4:12">
-      <c r="E20" s="2"/>
+    <row r="20" spans="1:12">
+      <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="4:12">
-      <c r="L21" s="2"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:12">
-      <c r="D22" s="3"/>
+    <row r="27" spans="1:12">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>